--- a/docs/H&T 7.0 Day wise plan_JAVA-Angular-AWS.xlsx
+++ b/docs/H&T 7.0 Day wise plan_JAVA-Angular-AWS.xlsx
@@ -793,195 +793,195 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -994,7 +994,71 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA6E4F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDD7EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC5E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4B183"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1127,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1737,37 +1801,37 @@
     <mergeCell ref="C18:D18"/>
   </mergeCells>
   <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>"E"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>"S"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/docs/H&T 7.0 Day wise plan_JAVA-Angular-AWS.xlsx
+++ b/docs/H&T 7.0 Day wise plan_JAVA-Angular-AWS.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -283,6 +283,9 @@
     <t xml:space="preserve">Day 2,3,4,5, Day 1</t>
   </si>
   <si>
+    <t xml:space="preserve">https://docs.spring.io/spring-framework/docs/3.2.x/spring-framework-reference/html/beans.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sprint 2 Presentation and Evaluation </t>
   </si>
   <si>
@@ -544,7 +547,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -621,6 +624,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -788,7 +799,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -905,6 +916,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -941,7 +956,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -949,7 +964,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1197,8 +1212,8 @@
   </sheetPr>
   <dimension ref="A1:AI18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1417,7 +1432,9 @@
       <c r="F7" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="29" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1432,15 +1449,15 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" s="30" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="31" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="23" t="n">
         <v>4</v>
@@ -1459,39 +1476,39 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="29"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="29"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="243.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="D9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="36" t="n">
+      <c r="E9" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="37" t="n">
         <v>16</v>
       </c>
       <c r="G9" s="8"/>
@@ -1510,14 +1527,14 @@
       <c r="T9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="23" t="n">
         <v>4</v>
@@ -1538,19 +1555,19 @@
       <c r="T10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="D11" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="18" t="n">
@@ -1572,15 +1589,15 @@
       <c r="T11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="38" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="D12" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="40" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="18" t="n">
@@ -1602,13 +1619,13 @@
       <c r="T12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="57" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>19</v>
@@ -1632,13 +1649,13 @@
       <c r="T13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="114" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31"/>
-      <c r="B14" s="37"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="40" t="s">
         <v>45</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>19</v>
@@ -1662,16 +1679,16 @@
       <c r="T14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" s="18" t="n">
         <v>4</v>
@@ -1692,16 +1709,16 @@
       <c r="T15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="43" t="n">
+      <c r="A16" s="32"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="44" t="n">
         <v>4</v>
       </c>
       <c r="G16" s="8"/>
@@ -1720,20 +1737,20 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="B17" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46" t="s">
+      <c r="C17" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="47" t="n">
+      <c r="D17" s="46"/>
+      <c r="E17" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="48" t="n">
         <v>20</v>
       </c>
       <c r="G17" s="8"/>
@@ -1752,16 +1769,16 @@
       <c r="T17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="17" t="s">
-        <v>53</v>
       </c>
       <c r="F18" s="18" t="n">
         <v>20</v>
@@ -1829,6 +1846,9 @@
       <formula>"L"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1" display="https://docs.spring.io/spring-framework/docs/3.2.x/spring-framework-reference/html/beans.html"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1836,6 +1856,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>